--- a/Welche Diagnosen wurden zuerst gestellt in AUB-Fällen, R1.xlsx
+++ b/Welche Diagnosen wurden zuerst gestellt in AUB-Fällen, R1.xlsx
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.01457956600361664</v>
+        <v>0.01444162716348804</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="4">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.002034358047016275</v>
+        <v>0.002204828574578327</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.002373417721518987</v>
+        <v>0.002315070003307243</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.06419529837251356</v>
+        <v>0.06316833866166906</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.0009041591320072332</v>
+        <v>0.0008819314298313307</v>
       </c>
     </row>
     <row r="17">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.008476491862567812</v>
+        <v>0.008929555727042222</v>
       </c>
     </row>
     <row r="23">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.0005650994575045208</v>
+        <v>0.0005512071436445816</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.0005650994575045208</v>
+        <v>0.0005512071436445816</v>
       </c>
     </row>
     <row r="28">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="30">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="32">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="34">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="37">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="40">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.0009041591320072332</v>
+        <v>0.0008819314298313307</v>
       </c>
     </row>
     <row r="42">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="45">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="46">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.0005650994575045208</v>
+        <v>0.0006614485723734979</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.002938517179023508</v>
+        <v>0.002866277146951824</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.001130198915009042</v>
+        <v>0.001102414287289163</v>
       </c>
     </row>
     <row r="49">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="53">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="54">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.001695298372513562</v>
+        <v>0.001653621430933745</v>
       </c>
     </row>
     <row r="55">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.001582278481012658</v>
+        <v>0.001653621430933745</v>
       </c>
     </row>
     <row r="57">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.002825497287522604</v>
+        <v>0.002756035718222908</v>
       </c>
     </row>
     <row r="59">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.007459312839059674</v>
+        <v>0.007275934296108478</v>
       </c>
     </row>
     <row r="60">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="61">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.000678119349005425</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="62">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="63">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.0003390596745027125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="71">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.003277576853526221</v>
+        <v>0.003086760004409657</v>
       </c>
     </row>
     <row r="72">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.002373417721518987</v>
+        <v>0.002315070003307243</v>
       </c>
     </row>
     <row r="73">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.0001130198915009042</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="77">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="78">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.002260397830018083</v>
+        <v>0.002535552860765075</v>
       </c>
     </row>
     <row r="79">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="81">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="86">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.0005650994575045208</v>
+        <v>0.0005512071436445816</v>
       </c>
     </row>
     <row r="87">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.003503616636528029</v>
+        <v>0.003527725719325323</v>
       </c>
     </row>
     <row r="89">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.004972875226039783</v>
+        <v>0.005071105721530151</v>
       </c>
     </row>
     <row r="90">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="91">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.0007911392405063291</v>
+        <v>0.0005512071436445816</v>
       </c>
     </row>
     <row r="92">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.002486437613019892</v>
+        <v>0.002535552860765075</v>
       </c>
     </row>
     <row r="95">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.001130198915009042</v>
+        <v>0.001102414287289163</v>
       </c>
     </row>
     <row r="96">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.001017179023508137</v>
+        <v>0.0009921728585602469</v>
       </c>
     </row>
     <row r="97">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.001921338155515371</v>
+        <v>0.001874104288391577</v>
       </c>
     </row>
     <row r="98">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="100">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.001243218806509946</v>
+        <v>0.00121265571601808</v>
       </c>
     </row>
     <row r="101">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.0009041591320072332</v>
+        <v>0.0008819314298313307</v>
       </c>
     </row>
     <row r="102">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.47875226039783</v>
+        <v>0.478337559254768</v>
       </c>
     </row>
     <row r="103">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.04306057866184448</v>
+        <v>0.04398633006283761</v>
       </c>
     </row>
     <row r="104">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.06611663652802893</v>
+        <v>0.06669606438099437</v>
       </c>
     </row>
     <row r="105">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.009380650994575045</v>
+        <v>0.009480762870686804</v>
       </c>
     </row>
     <row r="106">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.02588155515370705</v>
+        <v>0.02678866718112667</v>
       </c>
     </row>
     <row r="107">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.0003390596745027125</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="109">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="110">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="111">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.0109629294755877</v>
+        <v>0.01135486715907838</v>
       </c>
     </row>
     <row r="112">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.0009041591320072332</v>
+        <v>0.0008819314298313307</v>
       </c>
     </row>
     <row r="113">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.003503616636528029</v>
+        <v>0.003527725719325323</v>
       </c>
     </row>
     <row r="114">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.0003390596745027125</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="115">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.001808318264014466</v>
+        <v>0.002204828574578327</v>
       </c>
     </row>
     <row r="116">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="117">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.001243218806509946</v>
+        <v>0.00121265571601808</v>
       </c>
     </row>
     <row r="118">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="120">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.0007911392405063291</v>
+        <v>0.0007716900011024143</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.0004520795660036166</v>
+        <v>0.0005512071436445816</v>
       </c>
     </row>
     <row r="122">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.000678119349005425</v>
+        <v>0.0006614485723734979</v>
       </c>
     </row>
     <row r="123">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="124">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.002147377938517179</v>
+        <v>0.00209458714584941</v>
       </c>
     </row>
     <row r="125">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="126">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="127">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.0005650994575045208</v>
+        <v>0.0005512071436445816</v>
       </c>
     </row>
     <row r="129">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.0002260397830018083</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="130">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="131">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.0007911392405063291</v>
+        <v>0.0007716900011024143</v>
       </c>
     </row>
     <row r="132">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.00135623869801085</v>
+        <v>0.001322897144746996</v>
       </c>
     </row>
     <row r="133">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.002938517179023508</v>
+        <v>0.002645794289493992</v>
       </c>
     </row>
     <row r="134">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="135">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.001130198915009042</v>
+        <v>0.001102414287289163</v>
       </c>
     </row>
     <row r="136">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.002260397830018083</v>
+        <v>0.001984345717120494</v>
       </c>
     </row>
     <row r="137">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.01378842676311031</v>
+        <v>0.01389042001984346</v>
       </c>
     </row>
     <row r="138">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.001243218806509946</v>
+        <v>0.00121265571601808</v>
       </c>
     </row>
     <row r="139">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.000678119349005425</v>
+        <v>0.0006614485723734979</v>
       </c>
     </row>
     <row r="140">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.003277576853526221</v>
+        <v>0.00330724286186749</v>
       </c>
     </row>
     <row r="141">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="143">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="145">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="148">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.004407775768535262</v>
+        <v>0.004078932862969904</v>
       </c>
     </row>
     <row r="151">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="152">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.001582278481012658</v>
+        <v>0.001543380002204829</v>
       </c>
     </row>
     <row r="155">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="175">
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="178">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="185">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.03119349005424955</v>
+        <v>0.0317495314739279</v>
       </c>
     </row>
     <row r="187">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.005650994575045208</v>
+        <v>0.005953037151361482</v>
       </c>
     </row>
     <row r="188">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.0009041591320072332</v>
+        <v>0.0009921728585602469</v>
       </c>
     </row>
     <row r="189">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="190">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="191">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.001469258589511754</v>
+        <v>0.001433138573475912</v>
       </c>
     </row>
     <row r="192">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="193">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.0191003616636528</v>
+        <v>0.01874104288391578</v>
       </c>
     </row>
     <row r="194">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>0.0001130198915009042</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="195">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>0.00135623869801085</v>
+        <v>0.001653621430933745</v>
       </c>
     </row>
     <row r="198">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="200">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.0004520795660036166</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="201">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.001921338155515371</v>
+        <v>0.001984345717120494</v>
       </c>
     </row>
     <row r="202">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.0004520795660036166</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="204">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="205">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>0.000678119349005425</v>
+        <v>0.0006614485723734979</v>
       </c>
     </row>
     <row r="206">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.0004520795660036166</v>
+        <v>0.0004409657149156653</v>
       </c>
     </row>
     <row r="208">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="209">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="210">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.0007911392405063291</v>
+        <v>0.0005512071436445816</v>
       </c>
     </row>
     <row r="211">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="213">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>0.0003390596745027125</v>
+        <v>0.000330724286186749</v>
       </c>
     </row>
     <row r="217">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.002147377938517179</v>
+        <v>0.00209458714584941</v>
       </c>
     </row>
     <row r="219">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.0007911392405063291</v>
+        <v>0.0008819314298313307</v>
       </c>
     </row>
     <row r="221">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>0.0001130198915009042</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="229">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.01491862567811935</v>
+        <v>0.01521331716459045</v>
       </c>
     </row>
     <row r="230">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.01299728752260398</v>
+        <v>0.01256752287509646</v>
       </c>
     </row>
     <row r="231">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="232">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.0002260397830018083</v>
+        <v>0.0002204828574578327</v>
       </c>
     </row>
     <row r="233">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>0.0003390596745027125</v>
+        <v>0.0001102414287289163</v>
       </c>
     </row>
     <row r="234">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>0.001695298372513562</v>
+        <v>0.001433138573475912</v>
       </c>
     </row>
     <row r="235">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>0.002486437613019892</v>
+        <v>0.002645794289493992</v>
       </c>
     </row>
     <row r="236">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>0.01853526220614828</v>
+        <v>0.01907176717010253</v>
       </c>
     </row>
     <row r="237">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.04814647377938517</v>
+        <v>0.0479550214970786</v>
       </c>
     </row>
   </sheetData>
